--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H2">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I2">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J2">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.649739971220614</v>
+        <v>0.8436446666666667</v>
       </c>
       <c r="N2">
-        <v>0.649739971220614</v>
+        <v>2.530934</v>
       </c>
       <c r="O2">
-        <v>0.03137128794928128</v>
+        <v>0.038256548453167</v>
       </c>
       <c r="P2">
-        <v>0.03137128794928128</v>
+        <v>0.03944386410459907</v>
       </c>
       <c r="Q2">
-        <v>20.6637202940192</v>
+        <v>35.03511615606334</v>
       </c>
       <c r="R2">
-        <v>20.6637202940192</v>
+        <v>315.31604540457</v>
       </c>
       <c r="S2">
-        <v>0.003567448827451223</v>
+        <v>0.005274304562287307</v>
       </c>
       <c r="T2">
-        <v>0.003567448827451223</v>
+        <v>0.005756429332241544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H3">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I3">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J3">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.415920281425249</v>
+        <v>8.906580666666665</v>
       </c>
       <c r="N3">
-        <v>8.415920281425249</v>
+        <v>26.719742</v>
       </c>
       <c r="O3">
-        <v>0.4063444919523698</v>
+        <v>0.4038845360958133</v>
       </c>
       <c r="P3">
-        <v>0.4063444919523698</v>
+        <v>0.4164193425660044</v>
       </c>
       <c r="Q3">
-        <v>267.6520306814969</v>
+        <v>369.8750203008233</v>
       </c>
       <c r="R3">
-        <v>267.6520306814969</v>
+        <v>3328.87518270741</v>
       </c>
       <c r="S3">
-        <v>0.04620827757216629</v>
+        <v>0.05568223317310517</v>
       </c>
       <c r="T3">
-        <v>0.04620827757216629</v>
+        <v>0.06077215233535378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H4">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I4">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J4">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.66943974826957</v>
+        <v>6.206402666666667</v>
       </c>
       <c r="N4">
-        <v>5.66943974826957</v>
+        <v>18.619208</v>
       </c>
       <c r="O4">
-        <v>0.2737366250069835</v>
+        <v>0.2814402244434642</v>
       </c>
       <c r="P4">
-        <v>0.2737366250069835</v>
+        <v>0.2901748959424717</v>
       </c>
       <c r="Q4">
-        <v>180.3055412489916</v>
+        <v>257.7412587660933</v>
       </c>
       <c r="R4">
-        <v>180.3055412489916</v>
+        <v>2319.67132889484</v>
       </c>
       <c r="S4">
-        <v>0.03112850844665404</v>
+        <v>0.03880123847582605</v>
       </c>
       <c r="T4">
-        <v>0.03112850844665404</v>
+        <v>0.04234806402470645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H5">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I5">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J5">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.09135519768251</v>
+        <v>4.104251333333333</v>
       </c>
       <c r="N5">
-        <v>4.09135519768251</v>
+        <v>12.312754</v>
       </c>
       <c r="O5">
-        <v>0.1975422287290773</v>
+        <v>0.1861144818446177</v>
       </c>
       <c r="P5">
-        <v>0.1975422287290773</v>
+        <v>0.1918906599418865</v>
       </c>
       <c r="Q5">
-        <v>130.1176211609232</v>
+        <v>170.4425190822967</v>
       </c>
       <c r="R5">
-        <v>130.1176211609232</v>
+        <v>1533.98267174067</v>
       </c>
       <c r="S5">
-        <v>0.0224639101012043</v>
+        <v>0.02565899173843383</v>
       </c>
       <c r="T5">
-        <v>0.0224639101012043</v>
+        <v>0.02800448304312731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H6">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I6">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J6">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.88483890800885</v>
+        <v>1.991415</v>
       </c>
       <c r="N6">
-        <v>1.88483890800885</v>
+        <v>3.98283</v>
       </c>
       <c r="O6">
-        <v>0.09100536636228811</v>
+        <v>0.09030420916293774</v>
       </c>
       <c r="P6">
-        <v>0.09100536636228811</v>
+        <v>0.06207123744503819</v>
       </c>
       <c r="Q6">
-        <v>59.94364779684309</v>
+        <v>82.700049673275</v>
       </c>
       <c r="R6">
-        <v>59.94364779684309</v>
+        <v>496.20029803965</v>
       </c>
       <c r="S6">
-        <v>0.01034885746628556</v>
+        <v>0.0124499444314716</v>
       </c>
       <c r="T6">
-        <v>0.01034885746628556</v>
+        <v>0.00905866349629488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.38784822794661</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H7">
-        <v>65.38784822794661</v>
+        <v>216.066395</v>
       </c>
       <c r="I7">
-        <v>0.2338048518967697</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J7">
-        <v>0.2338048518967697</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.649739971220614</v>
+        <v>0.8436446666666667</v>
       </c>
       <c r="N7">
-        <v>0.649739971220614</v>
+        <v>2.530934</v>
       </c>
       <c r="O7">
-        <v>0.03137128794928128</v>
+        <v>0.038256548453167</v>
       </c>
       <c r="P7">
-        <v>0.03137128794928128</v>
+        <v>0.03944386410459907</v>
       </c>
       <c r="Q7">
-        <v>42.4850986258039</v>
+        <v>60.76108726254778</v>
       </c>
       <c r="R7">
-        <v>42.4850986258039</v>
+        <v>546.8497853629301</v>
       </c>
       <c r="S7">
-        <v>0.007334759332792627</v>
+        <v>0.009147179028345552</v>
       </c>
       <c r="T7">
-        <v>0.007334759332792627</v>
+        <v>0.009983323686411864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.38784822794661</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H8">
-        <v>65.38784822794661</v>
+        <v>216.066395</v>
       </c>
       <c r="I8">
-        <v>0.2338048518967697</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J8">
-        <v>0.2338048518967697</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.415920281425249</v>
+        <v>8.906580666666665</v>
       </c>
       <c r="N8">
-        <v>8.415920281425249</v>
+        <v>26.719742</v>
       </c>
       <c r="O8">
-        <v>0.4063444919523698</v>
+        <v>0.4038845360958133</v>
       </c>
       <c r="P8">
-        <v>0.4063444919523698</v>
+        <v>0.4164193425660044</v>
       </c>
       <c r="Q8">
-        <v>550.2989180603319</v>
+        <v>641.4709254744544</v>
       </c>
       <c r="R8">
-        <v>550.2989180603319</v>
+        <v>5773.23832927009</v>
       </c>
       <c r="S8">
-        <v>0.09500531375999198</v>
+        <v>0.09656919685191465</v>
       </c>
       <c r="T8">
-        <v>0.09500531375999198</v>
+        <v>0.1053965979371307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.38784822794661</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H9">
-        <v>65.38784822794661</v>
+        <v>216.066395</v>
       </c>
       <c r="I9">
-        <v>0.2338048518967697</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J9">
-        <v>0.2338048518967697</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.66943974826957</v>
+        <v>6.206402666666667</v>
       </c>
       <c r="N9">
-        <v>5.66943974826957</v>
+        <v>18.619208</v>
       </c>
       <c r="O9">
-        <v>0.2737366250069835</v>
+        <v>0.2814402244434642</v>
       </c>
       <c r="P9">
-        <v>0.2737366250069835</v>
+        <v>0.2901748959424717</v>
       </c>
       <c r="Q9">
-        <v>370.7124657973385</v>
+        <v>446.9983500350178</v>
       </c>
       <c r="R9">
-        <v>370.7124657973385</v>
+        <v>4022.98515031516</v>
       </c>
       <c r="S9">
-        <v>0.06400095106847938</v>
+        <v>0.06729263937424038</v>
       </c>
       <c r="T9">
-        <v>0.06400095106847938</v>
+        <v>0.07344386706592478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.38784822794661</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H10">
-        <v>65.38784822794661</v>
+        <v>216.066395</v>
       </c>
       <c r="I10">
-        <v>0.2338048518967697</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J10">
-        <v>0.2338048518967697</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.09135519768251</v>
+        <v>4.104251333333333</v>
       </c>
       <c r="N10">
-        <v>4.09135519768251</v>
+        <v>12.312754</v>
       </c>
       <c r="O10">
-        <v>0.1975422287290773</v>
+        <v>0.1861144818446177</v>
       </c>
       <c r="P10">
-        <v>0.1975422287290773</v>
+        <v>0.1918906599418865</v>
       </c>
       <c r="Q10">
-        <v>267.5249127126845</v>
+        <v>295.5969299224255</v>
       </c>
       <c r="R10">
-        <v>267.5249127126845</v>
+        <v>2660.37236930183</v>
       </c>
       <c r="S10">
-        <v>0.04618633153135975</v>
+        <v>0.04450015890180375</v>
       </c>
       <c r="T10">
-        <v>0.04618633153135975</v>
+        <v>0.04856792340423038</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.38784822794661</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H11">
-        <v>65.38784822794661</v>
+        <v>216.066395</v>
       </c>
       <c r="I11">
-        <v>0.2338048518967697</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J11">
-        <v>0.2338048518967697</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.88483890800885</v>
+        <v>1.991415</v>
       </c>
       <c r="N11">
-        <v>1.88483890800885</v>
+        <v>3.98283</v>
       </c>
       <c r="O11">
-        <v>0.09100536636228811</v>
+        <v>0.09030420916293774</v>
       </c>
       <c r="P11">
-        <v>0.09100536636228811</v>
+        <v>0.06207123744503819</v>
       </c>
       <c r="Q11">
-        <v>123.2455604510113</v>
+        <v>143.425953332975</v>
       </c>
       <c r="R11">
-        <v>123.2455604510113</v>
+        <v>860.55571999785</v>
       </c>
       <c r="S11">
-        <v>0.02127749620414604</v>
+        <v>0.02159182680156743</v>
       </c>
       <c r="T11">
-        <v>0.02127749620414604</v>
+        <v>0.01571035873632096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.2565026684047</v>
+        <v>65.33487700000001</v>
       </c>
       <c r="H12">
-        <v>62.2565026684047</v>
+        <v>196.004631</v>
       </c>
       <c r="I12">
-        <v>0.2226082182006422</v>
+        <v>0.2169004738773853</v>
       </c>
       <c r="J12">
-        <v>0.2226082182006422</v>
+        <v>0.2296015444621718</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.649739971220614</v>
+        <v>0.8436446666666667</v>
       </c>
       <c r="N12">
-        <v>0.649739971220614</v>
+        <v>2.530934</v>
       </c>
       <c r="O12">
-        <v>0.03137128794928128</v>
+        <v>0.038256548453167</v>
       </c>
       <c r="P12">
-        <v>0.03137128794928128</v>
+        <v>0.03944386410459907</v>
       </c>
       <c r="Q12">
-        <v>40.45053825206535</v>
+        <v>55.11942052837267</v>
       </c>
       <c r="R12">
-        <v>40.45053825206535</v>
+        <v>496.0747847553541</v>
       </c>
       <c r="S12">
-        <v>0.006983506513048783</v>
+        <v>0.008297863488405072</v>
       </c>
       <c r="T12">
-        <v>0.006983506513048783</v>
+        <v>0.009056372117971966</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.2565026684047</v>
+        <v>65.33487700000001</v>
       </c>
       <c r="H13">
-        <v>62.2565026684047</v>
+        <v>196.004631</v>
       </c>
       <c r="I13">
-        <v>0.2226082182006422</v>
+        <v>0.2169004738773853</v>
       </c>
       <c r="J13">
-        <v>0.2226082182006422</v>
+        <v>0.2296015444621718</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.415920281425249</v>
+        <v>8.906580666666665</v>
       </c>
       <c r="N13">
-        <v>8.415920281425249</v>
+        <v>26.719742</v>
       </c>
       <c r="O13">
-        <v>0.4063444919523698</v>
+        <v>0.4038845360958133</v>
       </c>
       <c r="P13">
-        <v>0.4063444919523698</v>
+        <v>0.4164193425660044</v>
       </c>
       <c r="Q13">
-        <v>523.9457634576322</v>
+        <v>581.9103523472446</v>
       </c>
       <c r="R13">
-        <v>523.9457634576322</v>
+        <v>5237.193171125202</v>
       </c>
       <c r="S13">
-        <v>0.09045562332916222</v>
+        <v>0.08760274727092981</v>
       </c>
       <c r="T13">
-        <v>0.09045562332916222</v>
+        <v>0.09561052419707683</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.2565026684047</v>
+        <v>65.33487700000001</v>
       </c>
       <c r="H14">
-        <v>62.2565026684047</v>
+        <v>196.004631</v>
       </c>
       <c r="I14">
-        <v>0.2226082182006422</v>
+        <v>0.2169004738773853</v>
       </c>
       <c r="J14">
-        <v>0.2226082182006422</v>
+        <v>0.2296015444621718</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.66943974826957</v>
+        <v>6.206402666666667</v>
       </c>
       <c r="N14">
-        <v>5.66943974826957</v>
+        <v>18.619208</v>
       </c>
       <c r="O14">
-        <v>0.2737366250069835</v>
+        <v>0.2814402244434642</v>
       </c>
       <c r="P14">
-        <v>0.2737366250069835</v>
+        <v>0.2901748959424717</v>
       </c>
       <c r="Q14">
-        <v>352.9594908165042</v>
+        <v>405.4945548391387</v>
       </c>
       <c r="R14">
-        <v>352.9594908165042</v>
+        <v>3649.450993552248</v>
       </c>
       <c r="S14">
-        <v>0.06093602234906194</v>
+        <v>0.06104451804994505</v>
       </c>
       <c r="T14">
-        <v>0.06093602234906194</v>
+        <v>0.06662460427254149</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.2565026684047</v>
+        <v>65.33487700000001</v>
       </c>
       <c r="H15">
-        <v>62.2565026684047</v>
+        <v>196.004631</v>
       </c>
       <c r="I15">
-        <v>0.2226082182006422</v>
+        <v>0.2169004738773853</v>
       </c>
       <c r="J15">
-        <v>0.2226082182006422</v>
+        <v>0.2296015444621718</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.09135519768251</v>
+        <v>4.104251333333333</v>
       </c>
       <c r="N15">
-        <v>4.09135519768251</v>
+        <v>12.312754</v>
       </c>
       <c r="O15">
-        <v>0.1975422287290773</v>
+        <v>0.1861144818446177</v>
       </c>
       <c r="P15">
-        <v>0.1975422287290773</v>
+        <v>0.1918906599418865</v>
       </c>
       <c r="Q15">
-        <v>254.7134657819126</v>
+        <v>268.1507560404193</v>
       </c>
       <c r="R15">
-        <v>254.7134657819126</v>
+        <v>2413.356804363774</v>
       </c>
       <c r="S15">
-        <v>0.04397452355676361</v>
+        <v>0.04036831930754161</v>
       </c>
       <c r="T15">
-        <v>0.04397452355676361</v>
+        <v>0.04405839189052254</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.2565026684047</v>
+        <v>65.33487700000001</v>
       </c>
       <c r="H16">
-        <v>62.2565026684047</v>
+        <v>196.004631</v>
       </c>
       <c r="I16">
-        <v>0.2226082182006422</v>
+        <v>0.2169004738773853</v>
       </c>
       <c r="J16">
-        <v>0.2226082182006422</v>
+        <v>0.2296015444621718</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.88483890800885</v>
+        <v>1.991415</v>
       </c>
       <c r="N16">
-        <v>1.88483890800885</v>
+        <v>3.98283</v>
       </c>
       <c r="O16">
-        <v>0.09100536636228811</v>
+        <v>0.09030420916293774</v>
       </c>
       <c r="P16">
-        <v>0.09100536636228811</v>
+        <v>0.06207123744503819</v>
       </c>
       <c r="Q16">
-        <v>117.343478505966</v>
+        <v>130.108854080955</v>
       </c>
       <c r="R16">
-        <v>117.343478505966</v>
+        <v>780.65312448573</v>
       </c>
       <c r="S16">
-        <v>0.02025854245260561</v>
+        <v>0.01958702576056371</v>
       </c>
       <c r="T16">
-        <v>0.02025854245260561</v>
+        <v>0.01425165198405896</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.2564920615435</v>
+        <v>72.34659833333335</v>
       </c>
       <c r="H17">
-        <v>72.2564920615435</v>
+        <v>217.039795</v>
       </c>
       <c r="I17">
-        <v>0.2583648014557065</v>
+        <v>0.2401781740848285</v>
       </c>
       <c r="J17">
-        <v>0.2583648014557065</v>
+        <v>0.2542423201304522</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.649739971220614</v>
+        <v>0.8436446666666667</v>
       </c>
       <c r="N17">
-        <v>0.649739971220614</v>
+        <v>2.530934</v>
       </c>
       <c r="O17">
-        <v>0.03137128794928128</v>
+        <v>0.038256548453167</v>
       </c>
       <c r="P17">
-        <v>0.03137128794928128</v>
+        <v>0.03944386410459907</v>
       </c>
       <c r="Q17">
-        <v>46.94793107256979</v>
+        <v>61.03482183539224</v>
       </c>
       <c r="R17">
-        <v>46.94793107256979</v>
+        <v>549.3133965185301</v>
       </c>
       <c r="S17">
-        <v>0.008105236582425856</v>
+        <v>0.009188387954269418</v>
       </c>
       <c r="T17">
-        <v>0.008105236582425856</v>
+        <v>0.01002829952486353</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>72.2564920615435</v>
+        <v>72.34659833333335</v>
       </c>
       <c r="H18">
-        <v>72.2564920615435</v>
+        <v>217.039795</v>
       </c>
       <c r="I18">
-        <v>0.2583648014557065</v>
+        <v>0.2401781740848285</v>
       </c>
       <c r="J18">
-        <v>0.2583648014557065</v>
+        <v>0.2542423201304522</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.415920281425249</v>
+        <v>8.906580666666665</v>
       </c>
       <c r="N18">
-        <v>8.415920281425249</v>
+        <v>26.719742</v>
       </c>
       <c r="O18">
-        <v>0.4063444919523698</v>
+        <v>0.4038845360958133</v>
       </c>
       <c r="P18">
-        <v>0.4063444919523698</v>
+        <v>0.4164193425660044</v>
       </c>
       <c r="Q18">
-        <v>608.1048770053865</v>
+        <v>644.3608140147655</v>
       </c>
       <c r="R18">
-        <v>608.1048770053865</v>
+        <v>5799.24732613289</v>
       </c>
       <c r="S18">
-        <v>0.104985113985894</v>
+        <v>0.09700425042059042</v>
       </c>
       <c r="T18">
-        <v>0.104985113985894</v>
+        <v>0.1058714198011785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>72.2564920615435</v>
+        <v>72.34659833333335</v>
       </c>
       <c r="H19">
-        <v>72.2564920615435</v>
+        <v>217.039795</v>
       </c>
       <c r="I19">
-        <v>0.2583648014557065</v>
+        <v>0.2401781740848285</v>
       </c>
       <c r="J19">
-        <v>0.2583648014557065</v>
+        <v>0.2542423201304522</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.66943974826957</v>
+        <v>6.206402666666667</v>
       </c>
       <c r="N19">
-        <v>5.66943974826957</v>
+        <v>18.619208</v>
       </c>
       <c r="O19">
-        <v>0.2737366250069835</v>
+        <v>0.2814402244434642</v>
       </c>
       <c r="P19">
-        <v>0.2737366250069835</v>
+        <v>0.2901748959424717</v>
       </c>
       <c r="Q19">
-        <v>409.6538281642394</v>
+        <v>449.0121208202623</v>
       </c>
       <c r="R19">
-        <v>409.6538281642394</v>
+        <v>4041.10908738236</v>
       </c>
       <c r="S19">
-        <v>0.07072390877108448</v>
+        <v>0.06759579922085554</v>
       </c>
       <c r="T19">
-        <v>0.07072390877108448</v>
+        <v>0.07377473878802655</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.2564920615435</v>
+        <v>72.34659833333335</v>
       </c>
       <c r="H20">
-        <v>72.2564920615435</v>
+        <v>217.039795</v>
       </c>
       <c r="I20">
-        <v>0.2583648014557065</v>
+        <v>0.2401781740848285</v>
       </c>
       <c r="J20">
-        <v>0.2583648014557065</v>
+        <v>0.2542423201304522</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.09135519768251</v>
+        <v>4.104251333333333</v>
       </c>
       <c r="N20">
-        <v>4.09135519768251</v>
+        <v>12.312754</v>
       </c>
       <c r="O20">
-        <v>0.1975422287290773</v>
+        <v>0.1861144818446177</v>
       </c>
       <c r="P20">
-        <v>0.1975422287290773</v>
+        <v>0.1918906599418865</v>
       </c>
       <c r="Q20">
-        <v>295.626974362301</v>
+        <v>296.9286226717145</v>
       </c>
       <c r="R20">
-        <v>295.626974362301</v>
+        <v>2672.35760404543</v>
       </c>
       <c r="S20">
-        <v>0.05103795870470583</v>
+        <v>0.04470063642018424</v>
       </c>
       <c r="T20">
-        <v>0.05103795870470583</v>
+        <v>0.04878672659498885</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.2564920615435</v>
+        <v>72.34659833333335</v>
       </c>
       <c r="H21">
-        <v>72.2564920615435</v>
+        <v>217.039795</v>
       </c>
       <c r="I21">
-        <v>0.2583648014557065</v>
+        <v>0.2401781740848285</v>
       </c>
       <c r="J21">
-        <v>0.2583648014557065</v>
+        <v>0.2542423201304522</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.88483890800885</v>
+        <v>1.991415</v>
       </c>
       <c r="N21">
-        <v>1.88483890800885</v>
+        <v>3.98283</v>
       </c>
       <c r="O21">
-        <v>0.09100536636228811</v>
+        <v>0.09030420916293774</v>
       </c>
       <c r="P21">
-        <v>0.09100536636228811</v>
+        <v>0.06207123744503819</v>
       </c>
       <c r="Q21">
-        <v>136.1918475938298</v>
+        <v>144.072101119975</v>
       </c>
       <c r="R21">
-        <v>136.1918475938298</v>
+        <v>864.4326067198501</v>
       </c>
       <c r="S21">
-        <v>0.0235125834115964</v>
+        <v>0.02168910006892882</v>
       </c>
       <c r="T21">
-        <v>0.0235125834115964</v>
+        <v>0.01578113542139471</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>47.9645784096898</v>
+        <v>49.988644</v>
       </c>
       <c r="H22">
-        <v>47.9645784096898</v>
+        <v>99.977288</v>
       </c>
       <c r="I22">
-        <v>0.1715051260331203</v>
+        <v>0.1659536386987904</v>
       </c>
       <c r="J22">
-        <v>0.1715051260331203</v>
+        <v>0.1171142723456333</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.649739971220614</v>
+        <v>0.8436446666666667</v>
       </c>
       <c r="N22">
-        <v>0.649739971220614</v>
+        <v>2.530934</v>
       </c>
       <c r="O22">
-        <v>0.03137128794928128</v>
+        <v>0.038256548453167</v>
       </c>
       <c r="P22">
-        <v>0.03137128794928128</v>
+        <v>0.03944386410459907</v>
       </c>
       <c r="Q22">
-        <v>31.16450379552073</v>
+        <v>42.17265290449867</v>
       </c>
       <c r="R22">
-        <v>31.16450379552073</v>
+        <v>253.035917426992</v>
       </c>
       <c r="S22">
-        <v>0.005380336693562793</v>
+        <v>0.006348813419859646</v>
       </c>
       <c r="T22">
-        <v>0.005380336693562793</v>
+        <v>0.004619439443110164</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>47.9645784096898</v>
+        <v>49.988644</v>
       </c>
       <c r="H23">
-        <v>47.9645784096898</v>
+        <v>99.977288</v>
       </c>
       <c r="I23">
-        <v>0.1715051260331203</v>
+        <v>0.1659536386987904</v>
       </c>
       <c r="J23">
-        <v>0.1715051260331203</v>
+        <v>0.1171142723456333</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.415920281425249</v>
+        <v>8.906580666666665</v>
       </c>
       <c r="N23">
-        <v>8.415920281425249</v>
+        <v>26.719742</v>
       </c>
       <c r="O23">
-        <v>0.4063444919523698</v>
+        <v>0.4038845360958133</v>
       </c>
       <c r="P23">
-        <v>0.4063444919523698</v>
+        <v>0.4164193425660044</v>
       </c>
       <c r="Q23">
-        <v>403.66606822812</v>
+        <v>445.2278902032826</v>
       </c>
       <c r="R23">
-        <v>403.66606822812</v>
+        <v>2671.367341219696</v>
       </c>
       <c r="S23">
-        <v>0.06969016330515541</v>
+        <v>0.06702610837927317</v>
       </c>
       <c r="T23">
-        <v>0.06969016330515541</v>
+        <v>0.0487686482952646</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>47.9645784096898</v>
+        <v>49.988644</v>
       </c>
       <c r="H24">
-        <v>47.9645784096898</v>
+        <v>99.977288</v>
       </c>
       <c r="I24">
-        <v>0.1715051260331203</v>
+        <v>0.1659536386987904</v>
       </c>
       <c r="J24">
-        <v>0.1715051260331203</v>
+        <v>0.1171142723456333</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.66943974826957</v>
+        <v>6.206402666666667</v>
       </c>
       <c r="N24">
-        <v>5.66943974826957</v>
+        <v>18.619208</v>
       </c>
       <c r="O24">
-        <v>0.2737366250069835</v>
+        <v>0.2814402244434642</v>
       </c>
       <c r="P24">
-        <v>0.2737366250069835</v>
+        <v>0.2901748959424717</v>
       </c>
       <c r="Q24">
-        <v>271.9322873448878</v>
+        <v>310.2496534246507</v>
       </c>
       <c r="R24">
-        <v>271.9322873448878</v>
+        <v>1861.497920547904</v>
       </c>
       <c r="S24">
-        <v>0.04694723437170368</v>
+        <v>0.04670602932259714</v>
       </c>
       <c r="T24">
-        <v>0.04694723437170368</v>
+        <v>0.03398362179127243</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>47.9645784096898</v>
+        <v>49.988644</v>
       </c>
       <c r="H25">
-        <v>47.9645784096898</v>
+        <v>99.977288</v>
       </c>
       <c r="I25">
-        <v>0.1715051260331203</v>
+        <v>0.1659536386987904</v>
       </c>
       <c r="J25">
-        <v>0.1715051260331203</v>
+        <v>0.1171142723456333</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.09135519768251</v>
+        <v>4.104251333333333</v>
       </c>
       <c r="N25">
-        <v>4.09135519768251</v>
+        <v>12.312754</v>
       </c>
       <c r="O25">
-        <v>0.1975422287290773</v>
+        <v>0.1861144818446177</v>
       </c>
       <c r="P25">
-        <v>0.1975422287290773</v>
+        <v>0.1918906599418865</v>
       </c>
       <c r="Q25">
-        <v>196.2401271811347</v>
+        <v>205.1659587885253</v>
       </c>
       <c r="R25">
-        <v>196.2401271811347</v>
+        <v>1230.995752731152</v>
       </c>
       <c r="S25">
-        <v>0.03387950483504388</v>
+        <v>0.03088637547665428</v>
       </c>
       <c r="T25">
-        <v>0.03387950483504388</v>
+        <v>0.0224731350090174</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>47.9645784096898</v>
+        <v>49.988644</v>
       </c>
       <c r="H26">
-        <v>47.9645784096898</v>
+        <v>99.977288</v>
       </c>
       <c r="I26">
-        <v>0.1715051260331203</v>
+        <v>0.1659536386987904</v>
       </c>
       <c r="J26">
-        <v>0.1715051260331203</v>
+        <v>0.1171142723456333</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.88483890800885</v>
+        <v>1.991415</v>
       </c>
       <c r="N26">
-        <v>1.88483890800885</v>
+        <v>3.98283</v>
       </c>
       <c r="O26">
-        <v>0.09100536636228811</v>
+        <v>0.09030420916293774</v>
       </c>
       <c r="P26">
-        <v>0.09100536636228811</v>
+        <v>0.06207123744503819</v>
       </c>
       <c r="Q26">
-        <v>90.40550359282459</v>
+        <v>99.54813549126</v>
       </c>
       <c r="R26">
-        <v>90.40550359282459</v>
+        <v>398.19254196504</v>
       </c>
       <c r="S26">
-        <v>0.01560788682765451</v>
+        <v>0.01498631210040617</v>
       </c>
       <c r="T26">
-        <v>0.01560788682765451</v>
+        <v>0.007269427806968673</v>
       </c>
     </row>
   </sheetData>
